--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7F21F8-12BE-4A70-BBAD-C2DC4B58ABB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BB1D2-364B-40C6-9642-F44925EA36AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-20670" yWindow="150" windowWidth="19200" windowHeight="13425" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
-    <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="8" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="3" r:id="rId4"/>
-    <sheet name="ops" sheetId="7" r:id="rId5"/>
-    <sheet name="interactions" sheetId="5" r:id="rId6"/>
-    <sheet name="sps" sheetId="4" r:id="rId7"/>
-    <sheet name="rest_interactions" sheetId="9" r:id="rId8"/>
-    <sheet name="sp_combos" sheetId="10" r:id="rId9"/>
+    <sheet name="config" sheetId="11" r:id="rId1"/>
+    <sheet name="meta" sheetId="1" r:id="rId2"/>
+    <sheet name="igs" sheetId="8" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="3" r:id="rId5"/>
+    <sheet name="ops" sheetId="7" r:id="rId6"/>
+    <sheet name="interactions" sheetId="5" r:id="rId7"/>
+    <sheet name="sps" sheetId="4" r:id="rId8"/>
+    <sheet name="rest_interactions" sheetId="9" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="156">
   <si>
     <t>Value</t>
   </si>
@@ -219,9 +220,6 @@
     <t>forbidden_s_combos</t>
   </si>
   <si>
-    <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
-  </si>
-  <si>
     <t>DeviceRequest</t>
   </si>
   <si>
@@ -297,207 +295,255 @@
     <t>client</t>
   </si>
   <si>
-    <t xml:space="preserve">Da Vinci DEQM Producer Client **SHALL**
-1. Support at least one transaction defined in the *Framework* Section of  this  Implementation Guide.
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>data-requirements</t>
+  </si>
+  <si>
+    <t>conf_MeasureReport</t>
+  </si>
+  <si>
+    <t>conf_Library</t>
+  </si>
+  <si>
+    <t>submit-data</t>
+  </si>
+  <si>
+    <t>producer-client</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/Measure-submit-data</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/Measure-data-requirements</t>
+  </si>
+  <si>
+    <t>CFQM</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>versioning_conf</t>
+  </si>
+  <si>
+    <t>readHistory_conf</t>
+  </si>
+  <si>
+    <t>updateCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalCreate</t>
+  </si>
+  <si>
+    <t>conditionalCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalRead</t>
+  </si>
+  <si>
+    <t>conditionalRead_conf</t>
+  </si>
+  <si>
+    <t>conditionalUpdate</t>
+  </si>
+  <si>
+    <t>conditionalUpdate_conf</t>
+  </si>
+  <si>
+    <t>conditionalDelete</t>
+  </si>
+  <si>
+    <t>conditionalDelete_conf</t>
+  </si>
+  <si>
+    <t>referencePolicy_conf</t>
+  </si>
+  <si>
+    <t>shall_include</t>
+  </si>
+  <si>
+    <t>should_include</t>
+  </si>
+  <si>
+    <t>shall_revinclude</t>
+  </si>
+  <si>
+    <t>should_revinclude</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/StructureDefinition/measure-cqfm</t>
+  </si>
+  <si>
+    <t>CQFM Measure</t>
+  </si>
+  <si>
+    <t>conf_Measure</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>combo_conf</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>fixed_kv</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>imp_note</t>
+  </si>
+  <si>
+    <t>!Encounter</t>
+  </si>
+  <si>
+    <t>class,date</t>
+  </si>
+  <si>
+    <t>date,token</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/datax-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/subscription-deqm</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/input/</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/output/</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>HL7 International - Clinical Quality Information Work Group</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/cqi/index.cfm</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Vinci DEQM Producer Client **SHALL**  support the Submit Data transaction defined in the *Framework* Section of  this  Implementation Guide.
 </t>
   </si>
   <si>
-    <t>SHOULD</t>
-  </si>
-  <si>
-    <t>data-requirements</t>
-  </si>
-  <si>
-    <t>conf_MeasureReport</t>
-  </si>
-  <si>
-    <t>conf_Library</t>
-  </si>
-  <si>
-    <t>submit-data</t>
-  </si>
-  <si>
-    <t>producer-client</t>
-  </si>
-  <si>
-    <t>The DaVinci DEQM Producer Client **SHOULD** be capable of supporting the DEQM MeasureReport Profiles and all the DEQM and QI Core Profiles they reference.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/OperationDefinition/Measure-submit-data</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/OperationDefinition/Measure-data-requirements</t>
-  </si>
-  <si>
-    <t>CFQM</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/us-qicore-3.2.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures</t>
-  </si>
-  <si>
-    <t>versioning_conf</t>
-  </si>
-  <si>
-    <t>readHistory_conf</t>
-  </si>
-  <si>
-    <t>updateCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalCreate</t>
-  </si>
-  <si>
-    <t>conditionalCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalRead</t>
-  </si>
-  <si>
-    <t>conditionalRead_conf</t>
-  </si>
-  <si>
-    <t>conditionalUpdate</t>
-  </si>
-  <si>
-    <t>conditionalUpdate_conf</t>
-  </si>
-  <si>
-    <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>conditionalDelete_conf</t>
-  </si>
-  <si>
-    <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>shall_include</t>
-  </si>
-  <si>
-    <t>should_include</t>
-  </si>
-  <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/StructureDefinition/measure-cqfm</t>
-  </si>
-  <si>
-    <t>CQFM Measure</t>
-  </si>
-  <si>
-    <t>conf_Measure</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>combo_conf</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>fixed_kv</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>imp_note</t>
-  </si>
-  <si>
-    <t>!Encounter</t>
-  </si>
-  <si>
-    <t>class,date</t>
-  </si>
-  <si>
-    <t>date,token</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm-1.1.0</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/datax-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/subscription-deqm</t>
+    <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
+  </si>
+  <si>
+    <t>It is the responsibility of the Producer to discover whether snapshot or incremental data exchange is supported by the inspection of the Consumer Server CapabilityStatement.</t>
+  </si>
+  <si>
+    <t>- The DaVinci DEQM Producer Client **SHALL** be capable of supporting the DEQM MeasureReport Profiles and all the DEQM and QI Core Profiles they reference. 
+- The required DEQM Submit Data Update Type Extension  is used to indicate whether the payload is a snapshot or incremental update for both the initial transaction and subsequent updates.</t>
   </si>
 </sst>
 </file>
@@ -909,11 +955,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C8EBBB-B358-4944-97C3-B708CC055420}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB70C6-5574-4697-896E-C36881469BAA}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="7" t="str">
+        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,23 +1136,23 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -959,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,15 +1176,15 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -991,49 +1192,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1042,11 +1201,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="87.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,170 +1274,170 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1249,12 +1450,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,89 +1484,89 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
         <v>37</v>
       </c>
       <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>94</v>
-      </c>
-      <c r="M1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>99</v>
       </c>
       <c r="R1" t="s">
         <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1378,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD6ECC-0BFD-4409-A93E-9F9ABC9C3BE7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1386,7 +1587,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,6 +1595,7 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1415,13 +1617,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1429,16 +1631,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1468,13 +1673,13 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1687,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,10 +1700,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,7 +1741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1619,7 +1824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BEC3A-D2AE-4BF9-B27C-63C9D775D57B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1641,116 +1846,44 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB70C6-5574-4697-896E-C36881469BAA}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="7" t="str">
-        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BB1D2-364B-40C6-9642-F44925EA36AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C0F17-D722-4809-A4A2-EC4668FEA3C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20670" yWindow="150" windowWidth="19200" windowHeight="13425" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="870" yWindow="1380" windowWidth="25200" windowHeight="13425" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1549,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>

--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C0F17-D722-4809-A4A2-EC4668FEA3C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB74E03-8F97-4C31-BAB2-A857CCE52D9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1380" windowWidth="25200" windowHeight="13425" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="25200" yWindow="2430" windowWidth="25200" windowHeight="13425" activeTab="9" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -472,9 +472,6 @@
     <t>canon</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
     <t>publisher</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   <si>
     <t>- The DaVinci DEQM Producer Client **SHALL** be capable of supporting the DEQM MeasureReport Profiles and all the DEQM and QI Core Profiles they reference. 
 - The required DEQM Submit Data Update Type Extension  is used to indicate whether the payload is a snapshot or incremental update for both the initial transaction and subsequent updates.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
 </sst>
 </file>
@@ -959,7 +959,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,31 +1005,31 @@
         <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
         <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB70C6-5574-4697-896E-C36881469BAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
         <v>119</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
@@ -1100,7 +1100,7 @@
         <v>121</v>
       </c>
       <c r="J2" s="7" t="str">
-        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <f t="shared" ref="J2" si="0">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1226,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -1454,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1552,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB74E03-8F97-4C31-BAB2-A857CCE52D9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403D994-2A9C-2940-A91F-9CC2142DC5D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="2430" windowWidth="25200" windowHeight="13425" activeTab="9" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -442,9 +442,6 @@
     <t>date,token</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/datax-measurereport-deqm</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
   </si>
   <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
@@ -544,6 +538,12 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
   </si>
 </sst>
 </file>
@@ -962,13 +962,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -976,60 +976,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>127</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>134</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1041,13 +1041,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB70C6-5574-4697-896E-C36881469BAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1113,17 +1113,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1139,23 +1139,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1163,15 +1163,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1179,20 +1179,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1208,12 +1208,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1221,20 +1221,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1250,15 +1250,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1272,9 +1272,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1286,9 +1286,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1300,9 +1300,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1314,9 +1314,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -1328,9 +1328,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1342,9 +1342,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1356,9 +1356,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1370,9 +1370,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -1384,9 +1384,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -1398,9 +1398,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -1412,9 +1412,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -1426,7 +1426,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1458,19 +1458,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1552,10 +1552,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -1590,15 +1590,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1660,15 +1660,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1690,12 +1690,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1706,32 +1706,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1749,21 +1749,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
@@ -1832,13 +1832,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>109</v>
       </c>

--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\davinci-deqm\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403D994-2A9C-2940-A91F-9CC2142DC5D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79959AD-0A55-4224-A837-64F450CB0ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="3312" yWindow="1020" windowWidth="26052" windowHeight="15240" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -490,12 +493,6 @@
     <t>4.0.1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Da Vinci DEQM Producer Client **SHALL**  support the Submit Data transaction defined in the *Framework* Section of  this  Implementation Guide.
 </t>
   </si>
@@ -540,10 +537,16 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
   <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|3.1.0</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|3.0.0</t>
   </si>
 </sst>
 </file>
@@ -557,12 +560,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -590,6 +587,14 @@
       <color rgb="FF333333"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -624,9 +629,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -638,12 +644,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -962,13 +969,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -976,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -984,7 +991,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -992,7 +999,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -1000,15 +1007,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -1016,7 +1023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -1045,41 +1052,41 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1099,7 +1106,7 @@
       <c r="F2" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="6" t="str">
         <f t="shared" ref="J2" si="0">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
@@ -1113,17 +1120,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1139,15 +1146,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1163,15 +1170,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1179,23 +1186,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{4B00FA56-CF7B-477A-8D94-4B6D7FB36DEA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1204,16 +1214,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="87.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1221,20 +1231,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>139</v>
+      <c r="B3" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1250,15 +1260,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1272,9 +1282,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1286,9 +1296,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1300,9 +1310,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1314,7 +1324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -1328,9 +1338,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1342,9 +1352,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1356,9 +1366,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1370,9 +1380,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -1384,9 +1394,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -1398,9 +1408,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -1412,7 +1422,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1458,19 +1468,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1528,23 +1538,23 @@
       <c r="S1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>99</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="101.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1552,10 +1562,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1564,7 +1574,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -1590,15 +1600,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1615,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1629,7 +1639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1660,15 +1670,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1682,7 +1692,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1690,12 +1700,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1706,32 +1716,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1749,21 +1759,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
@@ -1832,13 +1842,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1849,7 +1859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -1858,7 +1868,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1867,7 +1877,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1876,7 +1886,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
